--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15720" windowHeight="4425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Emails</t>
   </si>
@@ -30,57 +31,6 @@
     <t>Cloud@test0</t>
   </si>
   <si>
-    <t>cloudtest1@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest2@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest3@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest4@mailinator.com</t>
-  </si>
-  <si>
-    <t>Cloud@test2</t>
-  </si>
-  <si>
-    <t>Cloud@test3</t>
-  </si>
-  <si>
-    <t>Cloud@test1</t>
-  </si>
-  <si>
-    <t>cloudtest5@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest6@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest7@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest8@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest9@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest10@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest11@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest12@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest13@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest14@mailinator.com</t>
-  </si>
-  <si>
     <t>cloudtest15@mailinator.com</t>
   </si>
   <si>
@@ -187,39 +137,6 @@
   </si>
   <si>
     <t>cloudtest50@mailinator.com</t>
-  </si>
-  <si>
-    <t>Cloud@test4</t>
-  </si>
-  <si>
-    <t>Cloud@test5</t>
-  </si>
-  <si>
-    <t>Cloud@test6</t>
-  </si>
-  <si>
-    <t>Cloud@test7</t>
-  </si>
-  <si>
-    <t>Cloud@test8</t>
-  </si>
-  <si>
-    <t>Cloud@test9</t>
-  </si>
-  <si>
-    <t>Cloud@test10</t>
-  </si>
-  <si>
-    <t>Cloud@test11</t>
-  </si>
-  <si>
-    <t>Cloud@test12</t>
-  </si>
-  <si>
-    <t>Cloud@test13</t>
-  </si>
-  <si>
-    <t>Cloud@test14</t>
   </si>
   <si>
     <t>Cloud@test15</t>
@@ -705,7 +622,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A3" sqref="A3:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,422 +647,368 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+    <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
     <hyperlink ref="A11" r:id="rId9"/>
     <hyperlink ref="A12" r:id="rId10"/>
     <hyperlink ref="A13" r:id="rId11"/>
@@ -1174,23 +1037,9 @@
     <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A37" r:id="rId35"/>
     <hyperlink ref="A38" r:id="rId36"/>
-    <hyperlink ref="A39" r:id="rId37"/>
-    <hyperlink ref="A40" r:id="rId38"/>
-    <hyperlink ref="A41" r:id="rId39"/>
-    <hyperlink ref="A42" r:id="rId40"/>
-    <hyperlink ref="A43" r:id="rId41"/>
-    <hyperlink ref="A44" r:id="rId42"/>
-    <hyperlink ref="A45" r:id="rId43"/>
-    <hyperlink ref="A46" r:id="rId44"/>
-    <hyperlink ref="A47" r:id="rId45"/>
-    <hyperlink ref="A48" r:id="rId46"/>
-    <hyperlink ref="A49" r:id="rId47"/>
-    <hyperlink ref="A50" r:id="rId48"/>
-    <hyperlink ref="A51" r:id="rId49"/>
-    <hyperlink ref="A52" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15720" windowHeight="4425"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17565" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Emails</t>
   </si>
@@ -25,39 +25,12 @@
     <t>Passwords</t>
   </si>
   <si>
-    <t>cloudtest@mailinator.com</t>
-  </si>
-  <si>
-    <t>Cloud@test0</t>
-  </si>
-  <si>
-    <t>cloudtest15@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest16@mailinator.com</t>
-  </si>
-  <si>
     <t>cloudtest17@mailinator.com</t>
   </si>
   <si>
     <t>cloudtest18@mailinator.com</t>
   </si>
   <si>
-    <t>cloudtest19@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest20@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest21@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest22@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest23@mailinator.com</t>
-  </si>
-  <si>
     <t>cloudtest24@mailinator.com</t>
   </si>
   <si>
@@ -85,27 +58,6 @@
     <t>cloudtest32@mailinator.com</t>
   </si>
   <si>
-    <t>cloudtest33@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest34@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest35@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest36@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest37@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest38@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest39@mailinator.com</t>
-  </si>
-  <si>
     <t>cloudtest40@mailinator.com</t>
   </si>
   <si>
@@ -124,48 +76,15 @@
     <t>cloudtest45@mailinator.com</t>
   </si>
   <si>
-    <t>cloudtest46@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest47@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest48@mailinator.com</t>
-  </si>
-  <si>
-    <t>cloudtest49@mailinator.com</t>
-  </si>
-  <si>
     <t>cloudtest50@mailinator.com</t>
   </si>
   <si>
-    <t>Cloud@test15</t>
-  </si>
-  <si>
-    <t>Cloud@test16</t>
-  </si>
-  <si>
     <t>Cloud@test17</t>
   </si>
   <si>
     <t>Cloud@test18</t>
   </si>
   <si>
-    <t>Cloud@test19</t>
-  </si>
-  <si>
-    <t>Cloud@test20</t>
-  </si>
-  <si>
-    <t>Cloud@test21</t>
-  </si>
-  <si>
-    <t>Cloud@test22</t>
-  </si>
-  <si>
-    <t>Cloud@test23</t>
-  </si>
-  <si>
     <t>Cloud@test24</t>
   </si>
   <si>
@@ -193,27 +112,6 @@
     <t>Cloud@test32</t>
   </si>
   <si>
-    <t>Cloud@test33</t>
-  </si>
-  <si>
-    <t>Cloud@test34</t>
-  </si>
-  <si>
-    <t>Cloud@test35</t>
-  </si>
-  <si>
-    <t>Cloud@test36</t>
-  </si>
-  <si>
-    <t>Cloud@test37</t>
-  </si>
-  <si>
-    <t>Cloud@test38</t>
-  </si>
-  <si>
-    <t>Cloud@test39</t>
-  </si>
-  <si>
     <t>Cloud@test40</t>
   </si>
   <si>
@@ -230,18 +128,6 @@
   </si>
   <si>
     <t>Cloud@test45</t>
-  </si>
-  <si>
-    <t>Cloud@test46</t>
-  </si>
-  <si>
-    <t>Cloud@test47</t>
-  </si>
-  <si>
-    <t>Cloud@test48</t>
-  </si>
-  <si>
-    <t>Cloud@test49</t>
   </si>
   <si>
     <t>Cloud@test50</t>
@@ -622,7 +508,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,308 +525,232 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1001,7 +811,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
@@ -1018,28 +828,9 @@
     <hyperlink ref="A17" r:id="rId15"/>
     <hyperlink ref="A18" r:id="rId16"/>
     <hyperlink ref="A19" r:id="rId17"/>
-    <hyperlink ref="A20" r:id="rId18"/>
-    <hyperlink ref="A21" r:id="rId19"/>
-    <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
-    <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A25" r:id="rId23"/>
-    <hyperlink ref="A26" r:id="rId24"/>
-    <hyperlink ref="A27" r:id="rId25"/>
-    <hyperlink ref="A28" r:id="rId26"/>
-    <hyperlink ref="A29" r:id="rId27"/>
-    <hyperlink ref="A30" r:id="rId28"/>
-    <hyperlink ref="A31" r:id="rId29"/>
-    <hyperlink ref="A32" r:id="rId30"/>
-    <hyperlink ref="A33" r:id="rId31"/>
-    <hyperlink ref="A34" r:id="rId32"/>
-    <hyperlink ref="A35" r:id="rId33"/>
-    <hyperlink ref="A36" r:id="rId34"/>
-    <hyperlink ref="A37" r:id="rId35"/>
-    <hyperlink ref="A38" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
